--- a/Data/Transitions/19591973Translation.xlsx
+++ b/Data/Transitions/19591973Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="657">
   <si>
     <t>id</t>
   </si>
@@ -595,7 +595,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{320.0: 1.0, 242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1688,6 +1688,9 @@
   </si>
   <si>
     <t>{315.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{320.0: 0.43431836980224076, 242.0: 0.5656816301977592}</t>
   </si>
   <si>
     <t>{400.0: 0.9874941009910335, 50.0: 0.008788675988621757, 96.0: 0.0017704710454288894, 100.0: 0.0019467519749158475}</t>
@@ -4454,7 +4457,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>558</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4487,7 +4490,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4498,7 +4501,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4509,7 +4512,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4531,7 +4534,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4575,7 +4578,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4641,7 +4644,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4685,7 +4688,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4696,7 +4699,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4718,7 +4721,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4795,7 +4798,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4839,7 +4842,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4861,7 +4864,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4905,7 +4908,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4916,7 +4919,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4927,7 +4930,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4938,7 +4941,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5081,7 +5084,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5092,7 +5095,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5136,7 +5139,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5147,7 +5150,7 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5224,7 +5227,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5235,7 +5238,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5268,7 +5271,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5290,7 +5293,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5301,7 +5304,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5312,7 +5315,7 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5345,7 +5348,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5378,7 +5381,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5389,7 +5392,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5422,7 +5425,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5444,7 +5447,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5455,7 +5458,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5477,7 +5480,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5499,7 +5502,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5521,7 +5524,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5576,7 +5579,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5697,7 +5700,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5708,7 +5711,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5741,7 +5744,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5763,7 +5766,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5829,7 +5832,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5851,7 +5854,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5862,7 +5865,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5884,7 +5887,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5939,7 +5942,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5961,7 +5964,7 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6027,7 +6030,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6038,7 +6041,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6049,7 +6052,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6060,7 +6063,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6071,7 +6074,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6126,7 +6129,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6148,7 +6151,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6159,7 +6162,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6192,7 +6195,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6203,7 +6206,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6247,7 +6250,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6280,7 +6283,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6324,7 +6327,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6335,7 +6338,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6368,7 +6371,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6390,7 +6393,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6423,7 +6426,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6467,7 +6470,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6698,7 +6701,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6742,7 +6745,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6753,7 +6756,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6786,7 +6789,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6797,7 +6800,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6808,7 +6811,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6819,7 +6822,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6830,7 +6833,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6852,7 +6855,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6896,7 +6899,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6918,7 +6921,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6940,7 +6943,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6962,7 +6965,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7072,7 +7075,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7083,7 +7086,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7094,7 +7097,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7149,7 +7152,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7160,7 +7163,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7171,7 +7174,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7182,7 +7185,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7193,7 +7196,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7204,7 +7207,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7226,7 +7229,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7325,7 +7328,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7391,7 +7394,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7424,7 +7427,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7457,7 +7460,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7479,7 +7482,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7501,7 +7504,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7523,7 +7526,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7534,7 +7537,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7556,7 +7559,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7567,7 +7570,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7666,7 +7669,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
